--- a/Course 2/Semester 1/OOP/Lab_1/Тесты - Задача 1.xlsx
+++ b/Course 2/Semester 1/OOP/Lab_1/Тесты - Задача 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -40,10 +40,10 @@
   <si>
     <t>n = 10, m = 5
 1)n++*--m = 40
-n = 6, m = 9
-2)n--&lt;m++ = True
-n = 5, m = 10
-3)--n&gt;--m = False
+n = 11, m = 4
+2)n--&lt;m++ = False
+n = 10, m = 5
+3)--n&gt;--m = True
 4)5x^3(1/x^2 + 1/x^3)^1/5 = 376.5793335</t>
   </si>
   <si>
@@ -92,6 +92,22 @@
 x не может быть равно 0, введите новое значение: </t>
   </si>
   <si>
+    <t>Т6</t>
+  </si>
+  <si>
+    <t>x = -5</t>
+  </si>
+  <si>
+    <t>Т7</t>
+  </si>
+  <si>
+    <t>x = -0.5</t>
+  </si>
+  <si>
+    <t>Введите x: -0.5
+x не может быть равен от -1 до 0, введите новое значение:</t>
+  </si>
+  <si>
     <t>Классы входных данных</t>
   </si>
   <si>
@@ -101,16 +117,36 @@
     <t>n, m - строки</t>
   </si>
   <si>
-    <t>x - вещественное число</t>
+    <t>x - вещественное положительное
+ число</t>
   </si>
   <si>
     <t>x - строка</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>do while(!ok)</t>
+    <t xml:space="preserve">x находиться в диапазоне от -1 до 0
+</t>
+  </si>
+  <si>
+    <t>x - вещественное отрицательное число</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>do {} while(!isConvert)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>if (!isConvert) {}</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>while (x &lt;= 0 &amp;&amp; x &gt;= -1) {}</t>
   </si>
 </sst>
 </file>
@@ -741,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,19 +787,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,10 +821,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1054,7 +1108,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Границы внутри и снаружи" pivot="0" count="1" xr9:uid="{D1D2D829-4023-4DDF-85F4-5EF5469C7D41}">
+    <tableStyle name="Границы внутри и снаружи" pivot="0" count="1" xr9:uid="{144D708F-0A14-4ABE-A734-832EE272F65B}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1336,103 +1390,134 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="17.4285714285714" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.5714285714286" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.5714285714286" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="129" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="60" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="45" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="15">
+        <v>-313.985803938698</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="60" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1443,100 +1528,132 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.14285714285714" style="1"/>
-    <col min="5" max="6" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="25.7142857142857" style="5" customWidth="1"/>
+    <col min="2" max="6" width="9.14285714285714" style="1"/>
+    <col min="7" max="8" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="45" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="45" spans="1:8">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1547,40 +1664,179 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="26.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9.14285714285714" style="1"/>
+    <col min="8" max="9" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
